--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_CP_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E15881-DA53-4120-9903-04575D8312F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9036C3E7-1144-454C-9E95-1CCD5E592B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1296" yWindow="2088" windowWidth="17280" windowHeight="8964" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,9 +468,6 @@
     <t>Intersection Point of two Linked Lists.</t>
   </si>
   <si>
-    <t>Merge Sort For Linked lists.[Very Important]</t>
-  </si>
-  <si>
     <t>Quicksort for Linked Lists.[Very Important]</t>
   </si>
   <si>
@@ -1426,6 +1423,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -1847,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="73" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A550" zoomScale="73" workbookViewId="0">
+      <selection activeCell="D286" sqref="D286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="22.8" x14ac:dyDescent="0.45"/>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1882,7 +1882,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C5" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1893,7 +1893,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -1904,7 +1904,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1926,7 +1926,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -1948,7 +1948,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1959,7 +1959,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -1970,7 +1970,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -1981,7 +1981,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -1992,7 +1992,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -2003,7 +2003,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -2014,7 +2014,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -2025,7 +2025,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -2036,7 +2036,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -2047,7 +2047,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -2069,7 +2069,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -2080,7 +2080,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -2091,7 +2091,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -2102,7 +2102,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -2113,7 +2113,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -2135,7 +2135,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -2146,7 +2146,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -2157,7 +2157,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -2179,7 +2179,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -2190,7 +2190,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -2201,7 +2201,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -2267,7 +2267,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -2278,7 +2278,7 @@
         <v>41</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -2296,7 +2296,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
@@ -2307,7 +2307,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -2340,7 +2340,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -2373,7 +2373,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -2410,7 +2410,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2421,7 +2421,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2432,7 +2432,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2454,7 +2454,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2465,7 +2465,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2487,7 +2487,7 @@
         <v>61</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2498,7 +2498,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2509,7 +2509,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2520,7 +2520,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2531,7 +2531,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2553,7 +2553,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2575,7 +2575,7 @@
         <v>69</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2586,7 +2586,7 @@
         <v>70</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2597,7 +2597,7 @@
         <v>71</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2619,7 +2619,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2641,7 +2641,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2740,7 +2740,7 @@
         <v>84</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2795,7 +2795,7 @@
         <v>89</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2861,7 +2861,7 @@
         <v>95</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2887,7 +2887,7 @@
         <v>98</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2898,7 +2898,7 @@
         <v>99</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2909,7 +2909,7 @@
         <v>100</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2920,7 +2920,7 @@
         <v>101</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2953,7 +2953,7 @@
         <v>104</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2964,7 +2964,7 @@
         <v>105</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2975,7 +2975,7 @@
         <v>106</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2986,7 +2986,7 @@
         <v>107</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3008,7 +3008,7 @@
         <v>109</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3019,7 +3019,7 @@
         <v>110</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3030,7 +3030,7 @@
         <v>111</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3041,7 +3041,7 @@
         <v>112</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3107,7 +3107,7 @@
         <v>118</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3118,7 +3118,7 @@
         <v>119</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3129,7 +3129,7 @@
         <v>120</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3286,7 +3286,7 @@
         <v>135</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3297,7 +3297,7 @@
         <v>136</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3308,7 +3308,7 @@
         <v>137</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3319,7 +3319,7 @@
         <v>138</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3330,7 +3330,7 @@
         <v>139</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3341,7 +3341,7 @@
         <v>140</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3352,7 +3352,7 @@
         <v>141</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3363,7 +3363,7 @@
         <v>142</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3374,7 +3374,7 @@
         <v>143</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3385,7 +3385,7 @@
         <v>144</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3396,7 +3396,7 @@
         <v>145</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3407,7 +3407,7 @@
         <v>146</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3415,10 +3415,10 @@
         <v>134</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>147</v>
+        <v>466</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3426,7 +3426,7 @@
         <v>134</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>4</v>
@@ -3437,10 +3437,10 @@
         <v>134</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3448,10 +3448,10 @@
         <v>134</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3459,7 +3459,7 @@
         <v>134</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>4</v>
@@ -3470,10 +3470,10 @@
         <v>134</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3481,7 +3481,7 @@
         <v>134</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>4</v>
@@ -3492,10 +3492,10 @@
         <v>134</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3503,10 +3503,10 @@
         <v>134</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3514,10 +3514,10 @@
         <v>134</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3525,7 +3525,7 @@
         <v>134</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>4</v>
@@ -3536,10 +3536,10 @@
         <v>134</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3547,7 +3547,7 @@
         <v>134</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>4</v>
@@ -3558,7 +3558,7 @@
         <v>134</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>4</v>
@@ -3569,7 +3569,7 @@
         <v>134</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>4</v>
@@ -3580,7 +3580,7 @@
         <v>134</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>4</v>
@@ -3591,10 +3591,10 @@
         <v>134</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3602,10 +3602,10 @@
         <v>134</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3613,10 +3613,10 @@
         <v>134</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3624,7 +3624,7 @@
         <v>134</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>4</v>
@@ -3635,7 +3635,7 @@
         <v>134</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>4</v>
@@ -3646,10 +3646,10 @@
         <v>134</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3657,10 +3657,10 @@
         <v>134</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3668,10 +3668,10 @@
         <v>134</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.45">
@@ -3679,43 +3679,43 @@
     </row>
     <row r="177" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A177" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="C177" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A178" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A179" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A180" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>4</v>
@@ -3723,76 +3723,76 @@
     </row>
     <row r="181" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A181" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A182" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A183" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A184" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A185" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A186" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A187" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>4</v>
@@ -3800,10 +3800,10 @@
     </row>
     <row r="188" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A188" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>4</v>
@@ -3811,10 +3811,10 @@
     </row>
     <row r="189" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A189" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>4</v>
@@ -3822,21 +3822,21 @@
     </row>
     <row r="190" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A190" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A191" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>4</v>
@@ -3844,10 +3844,10 @@
     </row>
     <row r="192" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A192" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>4</v>
@@ -3855,10 +3855,10 @@
     </row>
     <row r="193" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A193" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>4</v>
@@ -3866,10 +3866,10 @@
     </row>
     <row r="194" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A194" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>4</v>
@@ -3877,10 +3877,10 @@
     </row>
     <row r="195" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A195" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>4</v>
@@ -3888,21 +3888,21 @@
     </row>
     <row r="196" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A196" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A197" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>4</v>
@@ -3910,10 +3910,10 @@
     </row>
     <row r="198" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A198" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>4</v>
@@ -3921,21 +3921,21 @@
     </row>
     <row r="199" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A199" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A200" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>4</v>
@@ -3943,32 +3943,32 @@
     </row>
     <row r="201" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A201" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A202" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A203" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>4</v>
@@ -3976,10 +3976,10 @@
     </row>
     <row r="204" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A204" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>4</v>
@@ -3987,10 +3987,10 @@
     </row>
     <row r="205" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A205" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>4</v>
@@ -3998,10 +3998,10 @@
     </row>
     <row r="206" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A206" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>4</v>
@@ -4009,32 +4009,32 @@
     </row>
     <row r="207" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A207" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A208" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A209" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>4</v>
@@ -4042,10 +4042,10 @@
     </row>
     <row r="210" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A210" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>4</v>
@@ -4053,13 +4053,13 @@
     </row>
     <row r="211" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A211" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -4072,10 +4072,10 @@
     </row>
     <row r="214" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A214" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>4</v>
@@ -4083,10 +4083,10 @@
     </row>
     <row r="215" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A215" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>4</v>
@@ -4094,10 +4094,10 @@
     </row>
     <row r="216" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A216" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>4</v>
@@ -4105,10 +4105,10 @@
     </row>
     <row r="217" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A217" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>4</v>
@@ -4116,10 +4116,10 @@
     </row>
     <row r="218" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A218" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>4</v>
@@ -4127,10 +4127,10 @@
     </row>
     <row r="219" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A219" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>4</v>
@@ -4138,10 +4138,10 @@
     </row>
     <row r="220" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A220" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>4</v>
@@ -4149,10 +4149,10 @@
     </row>
     <row r="221" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A221" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>4</v>
@@ -4160,10 +4160,10 @@
     </row>
     <row r="222" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A222" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>4</v>
@@ -4171,10 +4171,10 @@
     </row>
     <row r="223" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A223" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>4</v>
@@ -4182,10 +4182,10 @@
     </row>
     <row r="224" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A224" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>4</v>
@@ -4193,10 +4193,10 @@
     </row>
     <row r="225" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A225" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>4</v>
@@ -4204,10 +4204,10 @@
     </row>
     <row r="226" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A226" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>4</v>
@@ -4215,10 +4215,10 @@
     </row>
     <row r="227" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A227" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>4</v>
@@ -4226,10 +4226,10 @@
     </row>
     <row r="228" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A228" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>4</v>
@@ -4237,10 +4237,10 @@
     </row>
     <row r="229" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A229" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>4</v>
@@ -4248,10 +4248,10 @@
     </row>
     <row r="230" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A230" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>4</v>
@@ -4259,10 +4259,10 @@
     </row>
     <row r="231" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A231" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>4</v>
@@ -4270,10 +4270,10 @@
     </row>
     <row r="232" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A232" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>4</v>
@@ -4281,10 +4281,10 @@
     </row>
     <row r="233" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A233" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>4</v>
@@ -4292,10 +4292,10 @@
     </row>
     <row r="234" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A234" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>4</v>
@@ -4303,10 +4303,10 @@
     </row>
     <row r="235" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A235" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>4</v>
@@ -4320,21 +4320,21 @@
     </row>
     <row r="238" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A238" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="C238" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A239" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>4</v>
@@ -4342,10 +4342,10 @@
     </row>
     <row r="240" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A240" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>4</v>
@@ -4353,10 +4353,10 @@
     </row>
     <row r="241" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A241" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>4</v>
@@ -4364,21 +4364,21 @@
     </row>
     <row r="242" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A242" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A243" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>4</v>
@@ -4386,10 +4386,10 @@
     </row>
     <row r="244" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A244" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>4</v>
@@ -4397,10 +4397,10 @@
     </row>
     <row r="245" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A245" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>4</v>
@@ -4408,10 +4408,10 @@
     </row>
     <row r="246" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A246" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>4</v>
@@ -4419,10 +4419,10 @@
     </row>
     <row r="247" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A247" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>4</v>
@@ -4430,10 +4430,10 @@
     </row>
     <row r="248" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A248" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>4</v>
@@ -4441,10 +4441,10 @@
     </row>
     <row r="249" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A249" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>4</v>
@@ -4452,10 +4452,10 @@
     </row>
     <row r="250" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A250" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>4</v>
@@ -4463,21 +4463,21 @@
     </row>
     <row r="251" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A251" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A252" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>4</v>
@@ -4485,10 +4485,10 @@
     </row>
     <row r="253" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A253" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>4</v>
@@ -4496,10 +4496,10 @@
     </row>
     <row r="254" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A254" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>4</v>
@@ -4507,10 +4507,10 @@
     </row>
     <row r="255" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A255" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>4</v>
@@ -4518,10 +4518,10 @@
     </row>
     <row r="256" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A256" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>4</v>
@@ -4529,10 +4529,10 @@
     </row>
     <row r="257" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A257" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>4</v>
@@ -4540,10 +4540,10 @@
     </row>
     <row r="258" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A258" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>4</v>
@@ -4551,10 +4551,10 @@
     </row>
     <row r="259" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A259" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>4</v>
@@ -4562,10 +4562,10 @@
     </row>
     <row r="260" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A260" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>4</v>
@@ -4573,10 +4573,10 @@
     </row>
     <row r="261" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A261" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>4</v>
@@ -4584,10 +4584,10 @@
     </row>
     <row r="262" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A262" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>4</v>
@@ -4595,10 +4595,10 @@
     </row>
     <row r="263" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A263" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>4</v>
@@ -4606,10 +4606,10 @@
     </row>
     <row r="264" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A264" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>4</v>
@@ -4617,10 +4617,10 @@
     </row>
     <row r="265" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A265" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>4</v>
@@ -4628,10 +4628,10 @@
     </row>
     <row r="266" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A266" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>4</v>
@@ -4639,10 +4639,10 @@
     </row>
     <row r="267" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A267" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>4</v>
@@ -4650,10 +4650,10 @@
     </row>
     <row r="268" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A268" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>4</v>
@@ -4661,10 +4661,10 @@
     </row>
     <row r="269" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A269" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>4</v>
@@ -4672,10 +4672,10 @@
     </row>
     <row r="270" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A270" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>4</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="271" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A271" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>87</v>
@@ -4694,10 +4694,10 @@
     </row>
     <row r="272" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A272" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>4</v>
@@ -4711,10 +4711,10 @@
     </row>
     <row r="275" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A275" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>4</v>
@@ -4722,32 +4722,32 @@
     </row>
     <row r="276" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A276" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A277" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A278" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>4</v>
@@ -4755,10 +4755,10 @@
     </row>
     <row r="279" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A279" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>4</v>
@@ -4766,10 +4766,10 @@
     </row>
     <row r="280" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A280" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>4</v>
@@ -4777,10 +4777,10 @@
     </row>
     <row r="281" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A281" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>4</v>
@@ -4788,10 +4788,10 @@
     </row>
     <row r="282" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A282" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>4</v>
@@ -4799,21 +4799,21 @@
     </row>
     <row r="283" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A283" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A284" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>4</v>
@@ -4821,10 +4821,10 @@
     </row>
     <row r="285" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A285" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>4</v>
@@ -4832,21 +4832,21 @@
     </row>
     <row r="286" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A286" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A287" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>4</v>
@@ -4854,21 +4854,21 @@
     </row>
     <row r="288" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A288" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A289" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>4</v>
@@ -4876,10 +4876,10 @@
     </row>
     <row r="290" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A290" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>4</v>
@@ -4887,10 +4887,10 @@
     </row>
     <row r="291" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A291" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>4</v>
@@ -4898,10 +4898,10 @@
     </row>
     <row r="292" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A292" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>4</v>
@@ -4909,10 +4909,10 @@
     </row>
     <row r="293" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A293" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>4</v>
@@ -4926,10 +4926,10 @@
     </row>
     <row r="296" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A296" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>4</v>
@@ -4937,10 +4937,10 @@
     </row>
     <row r="297" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A297" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>4</v>
@@ -4948,10 +4948,10 @@
     </row>
     <row r="298" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A298" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>4</v>
@@ -4959,10 +4959,10 @@
     </row>
     <row r="299" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A299" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>4</v>
@@ -4970,10 +4970,10 @@
     </row>
     <row r="300" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A300" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>4</v>
@@ -4981,10 +4981,10 @@
     </row>
     <row r="301" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A301" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>4</v>
@@ -4992,10 +4992,10 @@
     </row>
     <row r="302" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A302" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>4</v>
@@ -5003,10 +5003,10 @@
     </row>
     <row r="303" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A303" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>4</v>
@@ -5014,10 +5014,10 @@
     </row>
     <row r="304" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A304" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>4</v>
@@ -5025,10 +5025,10 @@
     </row>
     <row r="305" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A305" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>4</v>
@@ -5036,10 +5036,10 @@
     </row>
     <row r="306" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A306" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>4</v>
@@ -5047,10 +5047,10 @@
     </row>
     <row r="307" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A307" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>4</v>
@@ -5058,10 +5058,10 @@
     </row>
     <row r="308" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A308" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>4</v>
@@ -5069,10 +5069,10 @@
     </row>
     <row r="309" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A309" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>4</v>
@@ -5080,10 +5080,10 @@
     </row>
     <row r="310" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A310" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>4</v>
@@ -5091,10 +5091,10 @@
     </row>
     <row r="311" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A311" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>4</v>
@@ -5102,21 +5102,21 @@
     </row>
     <row r="312" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A312" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A313" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>4</v>
@@ -5124,10 +5124,10 @@
     </row>
     <row r="314" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A314" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>4</v>
@@ -5135,10 +5135,10 @@
     </row>
     <row r="315" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A315" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>4</v>
@@ -5146,10 +5146,10 @@
     </row>
     <row r="316" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A316" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>4</v>
@@ -5157,10 +5157,10 @@
     </row>
     <row r="317" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A317" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>4</v>
@@ -5168,10 +5168,10 @@
     </row>
     <row r="318" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A318" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>4</v>
@@ -5179,10 +5179,10 @@
     </row>
     <row r="319" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A319" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>4</v>
@@ -5190,10 +5190,10 @@
     </row>
     <row r="320" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A320" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>4</v>
@@ -5201,10 +5201,10 @@
     </row>
     <row r="321" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A321" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>4</v>
@@ -5212,10 +5212,10 @@
     </row>
     <row r="322" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A322" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>4</v>
@@ -5223,10 +5223,10 @@
     </row>
     <row r="323" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A323" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>4</v>
@@ -5234,10 +5234,10 @@
     </row>
     <row r="324" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A324" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>4</v>
@@ -5245,10 +5245,10 @@
     </row>
     <row r="325" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A325" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>4</v>
@@ -5256,10 +5256,10 @@
     </row>
     <row r="326" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A326" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>4</v>
@@ -5267,10 +5267,10 @@
     </row>
     <row r="327" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A327" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>4</v>
@@ -5278,10 +5278,10 @@
     </row>
     <row r="328" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A328" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>4</v>
@@ -5289,10 +5289,10 @@
     </row>
     <row r="329" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A329" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>4</v>
@@ -5300,10 +5300,10 @@
     </row>
     <row r="330" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A330" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>4</v>
@@ -5311,10 +5311,10 @@
     </row>
     <row r="331" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A331" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>4</v>
@@ -5322,10 +5322,10 @@
     </row>
     <row r="332" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A332" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>4</v>
@@ -5333,10 +5333,10 @@
     </row>
     <row r="333" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A333" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>4</v>
@@ -5350,10 +5350,10 @@
     </row>
     <row r="336" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A336" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>4</v>
@@ -5361,10 +5361,10 @@
     </row>
     <row r="337" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A337" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>4</v>
@@ -5372,10 +5372,10 @@
     </row>
     <row r="338" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A338" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>4</v>
@@ -5383,10 +5383,10 @@
     </row>
     <row r="339" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A339" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>4</v>
@@ -5394,10 +5394,10 @@
     </row>
     <row r="340" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A340" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>4</v>
@@ -5405,10 +5405,10 @@
     </row>
     <row r="341" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A341" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>4</v>
@@ -5416,10 +5416,10 @@
     </row>
     <row r="342" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A342" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>4</v>
@@ -5427,10 +5427,10 @@
     </row>
     <row r="343" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A343" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>4</v>
@@ -5438,10 +5438,10 @@
     </row>
     <row r="344" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A344" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>4</v>
@@ -5449,10 +5449,10 @@
     </row>
     <row r="345" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A345" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>4</v>
@@ -5460,10 +5460,10 @@
     </row>
     <row r="346" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A346" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>4</v>
@@ -5471,10 +5471,10 @@
     </row>
     <row r="347" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A347" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>4</v>
@@ -5482,10 +5482,10 @@
     </row>
     <row r="348" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A348" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>4</v>
@@ -5493,10 +5493,10 @@
     </row>
     <row r="349" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A349" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>4</v>
@@ -5504,10 +5504,10 @@
     </row>
     <row r="350" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A350" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>4</v>
@@ -5515,10 +5515,10 @@
     </row>
     <row r="351" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A351" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>4</v>
@@ -5526,10 +5526,10 @@
     </row>
     <row r="352" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A352" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>4</v>
@@ -5537,10 +5537,10 @@
     </row>
     <row r="353" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A353" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>4</v>
@@ -5554,65 +5554,65 @@
     </row>
     <row r="356" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A356" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B356" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B356" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="C356" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A357" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A358" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A359" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A360" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A361" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>4</v>
@@ -5620,43 +5620,43 @@
     </row>
     <row r="362" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A362" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A363" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A364" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A365" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>4</v>
@@ -5664,10 +5664,10 @@
     </row>
     <row r="366" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A366" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>4</v>
@@ -5675,10 +5675,10 @@
     </row>
     <row r="367" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A367" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>4</v>
@@ -5686,10 +5686,10 @@
     </row>
     <row r="368" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A368" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>4</v>
@@ -5697,10 +5697,10 @@
     </row>
     <row r="369" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A369" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>4</v>
@@ -5708,10 +5708,10 @@
     </row>
     <row r="370" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A370" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>4</v>
@@ -5719,21 +5719,21 @@
     </row>
     <row r="371" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A371" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A372" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>4</v>
@@ -5741,10 +5741,10 @@
     </row>
     <row r="373" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A373" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>4</v>
@@ -5752,10 +5752,10 @@
     </row>
     <row r="374" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A374" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>4</v>
@@ -5763,10 +5763,10 @@
     </row>
     <row r="375" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A375" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>4</v>
@@ -5774,10 +5774,10 @@
     </row>
     <row r="376" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A376" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>4</v>
@@ -5785,10 +5785,10 @@
     </row>
     <row r="377" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A377" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>4</v>
@@ -5796,10 +5796,10 @@
     </row>
     <row r="378" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A378" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>4</v>
@@ -5807,10 +5807,10 @@
     </row>
     <row r="379" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A379" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>4</v>
@@ -5818,21 +5818,21 @@
     </row>
     <row r="380" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A380" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A381" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>4</v>
@@ -5840,10 +5840,10 @@
     </row>
     <row r="382" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A382" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>4</v>
@@ -5851,10 +5851,10 @@
     </row>
     <row r="383" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A383" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>4</v>
@@ -5862,10 +5862,10 @@
     </row>
     <row r="384" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A384" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>4</v>
@@ -5873,10 +5873,10 @@
     </row>
     <row r="385" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A385" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>4</v>
@@ -5884,10 +5884,10 @@
     </row>
     <row r="386" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A386" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>4</v>
@@ -5895,10 +5895,10 @@
     </row>
     <row r="387" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A387" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>4</v>
@@ -5906,10 +5906,10 @@
     </row>
     <row r="388" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A388" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>4</v>
@@ -5917,10 +5917,10 @@
     </row>
     <row r="389" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A389" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>4</v>
@@ -5928,10 +5928,10 @@
     </row>
     <row r="390" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A390" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>4</v>
@@ -5939,10 +5939,10 @@
     </row>
     <row r="391" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A391" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>4</v>
@@ -5950,10 +5950,10 @@
     </row>
     <row r="392" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A392" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>4</v>
@@ -5961,10 +5961,10 @@
     </row>
     <row r="393" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A393" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>4</v>
@@ -5972,10 +5972,10 @@
     </row>
     <row r="394" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A394" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>4</v>
@@ -5983,10 +5983,10 @@
     </row>
     <row r="395" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A395" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>4</v>
@@ -5994,10 +5994,10 @@
     </row>
     <row r="396" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A396" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>4</v>
@@ -6005,10 +6005,10 @@
     </row>
     <row r="397" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A397" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>4</v>
@@ -6016,10 +6016,10 @@
     </row>
     <row r="398" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A398" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>4</v>
@@ -6027,10 +6027,10 @@
     </row>
     <row r="399" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A399" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>4</v>
@@ -6044,10 +6044,10 @@
     </row>
     <row r="402" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A402" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B402" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="B402" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>4</v>
@@ -6055,10 +6055,10 @@
     </row>
     <row r="403" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A403" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>4</v>
@@ -6066,10 +6066,10 @@
     </row>
     <row r="404" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A404" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>4</v>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="405" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A405" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>89</v>
@@ -6088,10 +6088,10 @@
     </row>
     <row r="406" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A406" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>4</v>
@@ -6099,10 +6099,10 @@
     </row>
     <row r="407" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A407" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>4</v>
@@ -6116,43 +6116,43 @@
     </row>
     <row r="410" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A410" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B410" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="C410" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A411" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A412" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A413" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>4</v>
@@ -6160,21 +6160,21 @@
     </row>
     <row r="414" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A414" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A415" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>4</v>
@@ -6182,32 +6182,32 @@
     </row>
     <row r="416" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A416" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A417" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A418" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>4</v>
@@ -6215,10 +6215,10 @@
     </row>
     <row r="419" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A419" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>4</v>
@@ -6226,10 +6226,10 @@
     </row>
     <row r="420" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A420" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>4</v>
@@ -6237,10 +6237,10 @@
     </row>
     <row r="421" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A421" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>4</v>
@@ -6248,10 +6248,10 @@
     </row>
     <row r="422" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A422" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>4</v>
@@ -6259,43 +6259,43 @@
     </row>
     <row r="423" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A423" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A424" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A425" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A426" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>4</v>
@@ -6303,21 +6303,21 @@
     </row>
     <row r="427" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A427" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A428" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>4</v>
@@ -6325,10 +6325,10 @@
     </row>
     <row r="429" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A429" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>4</v>
@@ -6336,10 +6336,10 @@
     </row>
     <row r="430" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A430" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>4</v>
@@ -6347,10 +6347,10 @@
     </row>
     <row r="431" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A431" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>4</v>
@@ -6358,43 +6358,43 @@
     </row>
     <row r="432" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A432" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A433" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A434" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A435" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>4</v>
@@ -6402,10 +6402,10 @@
     </row>
     <row r="436" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A436" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>4</v>
@@ -6413,10 +6413,10 @@
     </row>
     <row r="437" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A437" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>4</v>
@@ -6424,21 +6424,21 @@
     </row>
     <row r="438" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A438" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A439" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>4</v>
@@ -6446,10 +6446,10 @@
     </row>
     <row r="440" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A440" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>4</v>
@@ -6457,21 +6457,21 @@
     </row>
     <row r="441" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A441" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A442" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>4</v>
@@ -6479,10 +6479,10 @@
     </row>
     <row r="443" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A443" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>4</v>
@@ -6490,21 +6490,21 @@
     </row>
     <row r="444" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A444" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A445" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>4</v>
@@ -6512,10 +6512,10 @@
     </row>
     <row r="446" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A446" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>4</v>
@@ -6523,21 +6523,21 @@
     </row>
     <row r="447" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A447" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A448" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>4</v>
@@ -6545,54 +6545,54 @@
     </row>
     <row r="449" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A449" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A450" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A451" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A452" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A453" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>4</v>
@@ -6600,10 +6600,10 @@
     </row>
     <row r="454" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A454" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>4</v>
@@ -6611,10 +6611,10 @@
     </row>
     <row r="455" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A455" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>4</v>
@@ -6622,10 +6622,10 @@
     </row>
     <row r="456" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A456" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>4</v>
@@ -6633,10 +6633,10 @@
     </row>
     <row r="457" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A457" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>4</v>
@@ -6644,10 +6644,10 @@
     </row>
     <row r="458" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A458" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>4</v>
@@ -6655,10 +6655,10 @@
     </row>
     <row r="459" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A459" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>4</v>
@@ -6666,10 +6666,10 @@
     </row>
     <row r="460" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A460" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>4</v>
@@ -6677,10 +6677,10 @@
     </row>
     <row r="461" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A461" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>4</v>
@@ -6688,10 +6688,10 @@
     </row>
     <row r="462" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A462" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>4</v>
@@ -6699,10 +6699,10 @@
     </row>
     <row r="463" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A463" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>4</v>
@@ -6710,10 +6710,10 @@
     </row>
     <row r="464" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A464" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>4</v>
@@ -6721,10 +6721,10 @@
     </row>
     <row r="465" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A465" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>4</v>
@@ -6732,10 +6732,10 @@
     </row>
     <row r="466" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A466" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>4</v>
@@ -6743,10 +6743,10 @@
     </row>
     <row r="467" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A467" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>4</v>
@@ -6754,24 +6754,24 @@
     </row>
     <row r="468" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A468" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A469" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.45">
@@ -6783,21 +6783,21 @@
     </row>
     <row r="472" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A472" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B472" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="C472" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A473" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>4</v>
@@ -6805,10 +6805,10 @@
     </row>
     <row r="474" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A474" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>4</v>
@@ -6816,10 +6816,10 @@
     </row>
     <row r="475" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A475" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>4</v>
@@ -6827,21 +6827,21 @@
     </row>
     <row r="476" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A476" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A477" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>4</v>
@@ -6849,10 +6849,10 @@
     </row>
     <row r="478" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A478" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>4</v>
@@ -6860,10 +6860,10 @@
     </row>
     <row r="479" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A479" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>4</v>
@@ -6871,10 +6871,10 @@
     </row>
     <row r="480" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A480" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>4</v>
@@ -6882,10 +6882,10 @@
     </row>
     <row r="481" spans="1:3" ht="24" x14ac:dyDescent="0.5">
       <c r="A481" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>4</v>
@@ -7249,7 +7249,7 @@
     <hyperlink ref="B154" r:id="rId353" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
     <hyperlink ref="B153" r:id="rId354" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
     <hyperlink ref="B152" r:id="rId355" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="B151" r:id="rId356" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="B151" r:id="rId356" display="Merge Sort For Linked lists.[Very Important]" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
     <hyperlink ref="B150" r:id="rId357" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
     <hyperlink ref="B149" r:id="rId358" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
     <hyperlink ref="B148" r:id="rId359" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA_CP_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9036C3E7-1144-454C-9E95-1CCD5E592B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ECC8B2-9D47-4C09-BF5B-DB70A19CD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1425,7 +1425,7 @@
     <t>yes</t>
   </si>
   <si>
-    <t>y</t>
+    <t>Mergesort for Linded Lists. [Very Important]</t>
   </si>
 </sst>
 </file>
@@ -1847,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A550" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D286" sqref="D286"/>
+    <sheetView tabSelected="1" topLeftCell="A304" zoomScale="73" workbookViewId="0">
+      <selection activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="22.8" x14ac:dyDescent="0.45"/>
@@ -2212,7 +2212,7 @@
         <v>35</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -2223,7 +2223,7 @@
         <v>36</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -2256,7 +2256,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -2329,7 +2329,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -2630,7 +2630,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2663,7 +2663,7 @@
         <v>77</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2707,7 +2707,7 @@
         <v>81</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2718,7 +2718,7 @@
         <v>82</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2729,7 +2729,7 @@
         <v>83</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2839,7 +2839,7 @@
         <v>93</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -2872,7 +2872,7 @@
         <v>96</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3052,7 +3052,7 @@
         <v>113</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3063,7 +3063,7 @@
         <v>114</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3184,7 +3184,7 @@
         <v>125</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -3971,7 +3971,7 @@
         <v>197</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -4078,7 +4078,7 @@
         <v>207</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -4100,7 +4100,7 @@
         <v>209</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -4122,7 +4122,7 @@
         <v>211</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -4144,7 +4144,7 @@
         <v>213</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -4199,7 +4199,7 @@
         <v>218</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -4210,7 +4210,7 @@
         <v>219</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -4761,7 +4761,7 @@
         <v>269</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -5670,7 +5670,7 @@
         <v>353</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -5692,7 +5692,7 @@
         <v>355</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="24" x14ac:dyDescent="0.5">
@@ -5857,7 +5857,7 @@
         <v>370</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="24" x14ac:dyDescent="0.5">
